--- a/5_results/5_3_mix/feature_importance_set_7.xlsx
+++ b/5_results/5_3_mix/feature_importance_set_7.xlsx
@@ -472,197 +472,197 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04158440195985443</v>
+        <v>0.01488091928615654</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003393694127706248</v>
+        <v>0.002420097022465638</v>
       </c>
       <c r="D2" t="n">
-        <v>5.275982901944052e-06</v>
+        <v>8.106456335884031e-05</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04857206507463916</v>
+        <v>0.01986393250470882</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03459673884506969</v>
+        <v>0.00989790606760425</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>demo-edad</t>
+          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006355514070498414</v>
+        <v>0.001992250380550265</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009769548558074331</v>
+        <v>0.0002683819287691205</v>
       </c>
       <c r="D3" t="n">
-        <v>6.494059313554633e-05</v>
+        <v>3.858180509567482e-05</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008367077621556996</v>
+        <v>0.002544852481318344</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004343950519439832</v>
+        <v>0.001439648279782185</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
+          <t>demo-edad</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005599000276605958</v>
+        <v>0.0006069614294870407</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001017541886051194</v>
+        <v>0.0001943205597742082</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001253318003696924</v>
+        <v>0.001105283144891313</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007694133083908816</v>
+        <v>0.001007070147857693</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0035038674693031</v>
+        <v>0.000206852711116388</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabras-PD</t>
+          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003841505838235149</v>
+        <v>0.0005168983335113841</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004410860576823082</v>
+        <v>0.0002415448676342545</v>
       </c>
       <c r="D5" t="n">
-        <v>2.049616645419445e-05</v>
+        <v>0.004371372359106148</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004749708127460214</v>
+        <v>0.00101424255447517</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002933303549010083</v>
+        <v>1.955411254759762e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
+          <t>eval-TLP-FigRey-totalCopia-PD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002411080292199119</v>
+        <v>0.000286383054573891</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005497262929255365</v>
+        <v>8.012664917032597e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0003029722053891855</v>
+        <v>0.0006644728596921913</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003542974327357616</v>
+        <v>0.0004513649326835753</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001279186257040623</v>
+        <v>0.0001214011764642067</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalMemoria-PD</t>
+          <t>eval-TLP-Stroop-palabras-PD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002040096447742168</v>
+        <v>0.0001708999093511299</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007127919645029976</v>
+        <v>0.0001027353095689604</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001530566314386473</v>
+        <v>0.01024000385124879</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003507744954485752</v>
+        <v>0.0003824333317064973</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0005724479409985838</v>
+        <v>-4.063351300423755e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-Duracion-PD</t>
+          <t>eval-TLP-Stroop-palabrasColor-PD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0015382365648692</v>
+        <v>7.58096974315503e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002583391655439511</v>
+        <v>0.0001074046419841304</v>
       </c>
       <c r="D8" t="n">
-        <v>9.19795089689453e-05</v>
+        <v>0.0948197855804245</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002070160477350916</v>
+        <v>0.0002969573397667851</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001006312652387483</v>
+        <v>-0.0001453379449036844</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabrasColor-PD</t>
+          <t>eval-TLP-FigRey-totalMemoria-PD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007270523388692273</v>
+        <v>4.253669614253664e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001407994820809989</v>
+        <v>5.174735449942799e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001606616729593596</v>
+        <v>0.06995613563086285</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001016960418529656</v>
+        <v>0.0001490852142813056</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0004371442592087992</v>
+        <v>-6.401182199623231e-05</v>
       </c>
     </row>
     <row r="10">
@@ -672,272 +672,272 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0006911130857312653</v>
+        <v>4.216101018474916e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002988730488532078</v>
+        <v>1.988855208124555e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003324438938344789</v>
+        <v>0.004518071939464616</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001306496824184546</v>
+        <v>8.311181380903622e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>7.572934727798466e-05</v>
+        <v>1.210206560462111e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
+          <t>clin-reservaCognitiva_escolaridad</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.000689244656025978</v>
+        <v>2.104869870644954e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003749185516183605</v>
+        <v>4.70663211442918e-06</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007361541192321254</v>
+        <v>0.1869504831443682</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001461207135733253</v>
+        <v>1.179589044682365e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.271782368129738e-05</v>
+        <v>-7.586150705533744e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalCopia-PD</t>
+          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0006432309375584034</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001352088690467999</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0002210914943133378</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0009216278677109319</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0003648340074058748</v>
+        <v>1.110223024625157e-16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
+          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0006349608739541601</v>
+        <v>8.881784197001253e-17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000151131177144188</v>
+        <v>4.965068306494547e-17</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0003576817897864343</v>
+        <v>0.008065044950046269</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009461420565488959</v>
+        <v>1.910492846461031e-16</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003237796913594244</v>
+        <v>-1.341360070607806e-17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
+          <t>eval-TLP-CubCorsi-total-PD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0006156660933721136</v>
+        <v>6.661338147750939e-17</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001361221569887476</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0002689837702314769</v>
+        <v>0.03524199845510997</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0008959434960200934</v>
+        <v>1.918208165900146e-16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003353886907241338</v>
+        <v>-5.859405363499577e-17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>clin-reservaCognitiva_escolaridad</t>
+          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0006100681075882575</v>
+        <v>6.661338147750939e-17</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002051687802818091</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001328320480793325</v>
+        <v>0.03524199845510997</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001032513461922402</v>
+        <v>1.918208165900146e-16</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001876227532541131</v>
+        <v>-5.859405363499577e-17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
+          <t>eval-TLP-FigRey-Duracion-PD</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.000442086253870122</v>
+        <v>4.440892098500626e-17</v>
       </c>
       <c r="C16" t="n">
-        <v>5.805510033411741e-05</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D16" t="n">
-        <v>3.488142233932471e-05</v>
+        <v>0.08890390417811063</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0005616225078648289</v>
+        <v>1.696163560975114e-16</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003225499998754152</v>
+        <v>-8.079851412749889e-17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
+          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0003082613827708469</v>
+        <v>4.440892098500626e-17</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000121526066431917</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002383135157952939</v>
+        <v>0.08890390417811063</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000558485233222902</v>
+        <v>1.696163560975114e-16</v>
       </c>
       <c r="G17" t="n">
-        <v>5.80375323187919e-05</v>
+        <v>-8.079851412749889e-17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
+          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001597350345090787</v>
+        <v>4.440892098500626e-17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001155781000197108</v>
+        <v>6.080941944488118e-17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01828070102036488</v>
+        <v>0.08890390417811063</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0003977119399087688</v>
+        <v>1.696163560975114e-16</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.824187089061144e-05</v>
+        <v>-8.079851412749889e-17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-total-PD</t>
+          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.000146982894440284</v>
+        <v>4.440892098500626e-17</v>
       </c>
       <c r="C19" t="n">
-        <v>7.922796989356868e-05</v>
+        <v>9.930136612989093e-17</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007139809830238195</v>
+        <v>0.1869504831500295</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0003101143794980574</v>
+        <v>2.488718063371874e-16</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.614859061748941e-05</v>
+        <v>-1.600539643671749e-16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
+          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.646125103264236e-05</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>5.607943677474992e-05</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009180858145635736</v>
+        <v>0.5</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0002119295864520392</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.900708438675453e-05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/5_results/5_3_mix/feature_importance_set_7.xlsx
+++ b/5_results/5_3_mix/feature_importance_set_7.xlsx
@@ -468,76 +468,76 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-color-PD</t>
+          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01488091928615654</v>
+        <v>0.06354566417340464</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002420097022465638</v>
+        <v>0.007225126525512943</v>
       </c>
       <c r="D2" t="n">
-        <v>8.106456335884031e-05</v>
+        <v>1.971380066701943e-05</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01986393250470882</v>
+        <v>0.07842229955129677</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00989790606760425</v>
+        <v>0.0486690287955125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
+          <t>eval-TLP-Stroop-color-PD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001992250380550265</v>
+        <v>0.02231570749450769</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002683819287691205</v>
+        <v>0.002506883079450877</v>
       </c>
       <c r="D3" t="n">
-        <v>3.858180509567482e-05</v>
+        <v>1.879327730304232e-05</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002544852481318344</v>
+        <v>0.02747741440390336</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001439648279782185</v>
+        <v>0.01715400058511201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>demo-edad</t>
+          <t>eval-TLP-FigRey-Duracion-PD</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006069614294870407</v>
+        <v>0.009995632374181662</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001943205597742082</v>
+        <v>0.0003326105180240044</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001105283144891313</v>
+        <v>1.469072268849992e-07</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001007070147857693</v>
+        <v>0.01068048202795899</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000206852711116388</v>
+        <v>0.009310782720404333</v>
       </c>
     </row>
     <row r="5">
@@ -547,97 +547,97 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0005168983335113841</v>
+        <v>0.006635934518337705</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002415448676342545</v>
+        <v>0.0009725570528189271</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004371372359106148</v>
+        <v>5.381415781109789e-05</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00101424255447517</v>
+        <v>0.008638442932258857</v>
       </c>
       <c r="G5" t="n">
-        <v>1.955411254759762e-05</v>
+        <v>0.004633426104416553</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalCopia-PD</t>
+          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000286383054573891</v>
+        <v>0.00640570864161818</v>
       </c>
       <c r="C6" t="n">
-        <v>8.012664917032597e-05</v>
+        <v>0.0007251121208296694</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0006644728596921913</v>
+        <v>1.937088519799191e-05</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0004513649326835753</v>
+        <v>0.007898724520521039</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001214011764642067</v>
+        <v>0.004912692762715322</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabras-PD</t>
+          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0001708999093511299</v>
+        <v>0.005931108764026427</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001027353095689604</v>
+        <v>0.001945576057809028</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01024000385124879</v>
+        <v>0.001210475548432942</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0003824333317064973</v>
+        <v>0.009937076757774036</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.063351300423755e-05</v>
+        <v>0.001925140770278819</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabrasColor-PD</t>
+          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.58096974315503e-05</v>
+        <v>0.005700691959542659</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001074046419841304</v>
+        <v>0.0007628956930014232</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0948197855804245</v>
+        <v>3.758648134635298e-05</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0002969573397667851</v>
+        <v>0.007271504735771622</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0001453379449036844</v>
+        <v>0.004129879183313695</v>
       </c>
     </row>
     <row r="9">
@@ -647,122 +647,122 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.253669614253664e-05</v>
+        <v>0.005239429105764537</v>
       </c>
       <c r="C9" t="n">
-        <v>5.174735449942799e-05</v>
+        <v>0.0007102027862871393</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06995613563086285</v>
+        <v>3.953753752368629e-05</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0001490852142813056</v>
+        <v>0.006701746458775424</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.401182199623231e-05</v>
+        <v>0.003777111752753651</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>demo-genero</t>
+          <t>eval-TLP-Stroop-palabras-PD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.216101018474916e-05</v>
+        <v>0.005222063383107467</v>
       </c>
       <c r="C10" t="n">
-        <v>1.988855208124555e-05</v>
+        <v>0.0007328444268509479</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004518071939464616</v>
+        <v>4.534620340816215e-05</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>8.311181380903622e-05</v>
+        <v>0.006731000186979964</v>
       </c>
       <c r="G10" t="n">
-        <v>1.210206560462111e-06</v>
+        <v>0.00371312657923497</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>clin-reservaCognitiva_escolaridad</t>
+          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.104869870644954e-06</v>
+        <v>0.004811253510215852</v>
       </c>
       <c r="C11" t="n">
-        <v>4.70663211442918e-06</v>
+        <v>0.0004245466462785765</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1869504831443682</v>
+        <v>7.200366131075326e-06</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>1.179589044682365e-05</v>
+        <v>0.005685400922761675</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.586150705533744e-06</v>
+        <v>0.003937106097670029</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
+          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0.00421719621853518</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.00110625703715838</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5</v>
+        <v>0.0005196113613988747</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0.006494994748141429</v>
       </c>
       <c r="G12" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0.00193939768892893</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
+          <t>demo-edad</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.881784197001253e-17</v>
+        <v>0.003827449761599566</v>
       </c>
       <c r="C13" t="n">
-        <v>4.965068306494547e-17</v>
+        <v>0.0001584953196424765</v>
       </c>
       <c r="D13" t="n">
-        <v>0.008065044950046269</v>
+        <v>3.520600114767207e-07</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>1.910492846461031e-16</v>
+        <v>0.004153793815381544</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.341360070607806e-17</v>
+        <v>0.003501105707817588</v>
       </c>
     </row>
     <row r="14">
@@ -772,172 +772,172 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.661338147750939e-17</v>
+        <v>0.003601274425785728</v>
       </c>
       <c r="C14" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.0003934276001902012</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03524199845510997</v>
+        <v>1.682426519851431e-05</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>1.918208165900146e-16</v>
+        <v>0.00441134729232466</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.859405363499577e-17</v>
+        <v>0.002791201559246795</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
+          <t>eval-TLP-Stroop-palabrasColor-PD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.661338147750939e-17</v>
+        <v>0.003433536697710604</v>
       </c>
       <c r="C15" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.000524910584139539</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03524199845510997</v>
+        <v>6.355388015362149e-05</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>1.918208165900146e-16</v>
+        <v>0.004514334845489187</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.859405363499577e-17</v>
+        <v>0.002352738549932022</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-Duracion-PD</t>
+          <t>eval-TLP-FigRey-totalCopia-PD</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.440892098500626e-17</v>
+        <v>0.0032700403118332</v>
       </c>
       <c r="C16" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.0005016183120779643</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08890390417811063</v>
+        <v>6.44106846596737e-05</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>1.696163560975114e-16</v>
+        <v>0.004302879349503588</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.079851412749889e-17</v>
+        <v>0.002237201274162812</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
+          <t>clin-reservaCognitiva_escolaridad</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.440892098500626e-17</v>
+        <v>0.002811075890707704</v>
       </c>
       <c r="C17" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.0003351388061714893</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08890390417811063</v>
+        <v>2.379051425434352e-05</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>1.696163560975114e-16</v>
+        <v>0.00350113132472536</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.079851412749889e-17</v>
+        <v>0.002121020456690048</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
+          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.440892098500626e-17</v>
+        <v>0.00243136087921545</v>
       </c>
       <c r="C18" t="n">
-        <v>6.080941944488118e-17</v>
+        <v>0.0001526550906026982</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08890390417811063</v>
+        <v>1.855023715347713e-06</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>1.696163560975114e-16</v>
+        <v>0.00274567982068398</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.079851412749889e-17</v>
+        <v>0.002117041937746919</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
+          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.440892098500626e-17</v>
+        <v>0.00217725269035709</v>
       </c>
       <c r="C19" t="n">
-        <v>9.930136612989093e-17</v>
+        <v>0.0002028139251001272</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1869504831500295</v>
+        <v>8.931595110448049e-06</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>2.488718063371874e-16</v>
+        <v>0.002594849365324594</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.600539643671749e-16</v>
+        <v>0.001759656015389586</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
+          <t>demo-genero</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.001731160164287426</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.0003696560333130348</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5</v>
+        <v>0.0002350021005659035</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.002492287046068303</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.0009700332825065493</v>
       </c>
     </row>
   </sheetData>
